--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -25,7 +25,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/ValueSet/ModifiedAdministrativeGender</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ruim/ValueSet/ModifiedAdministrativeGender</t>
   </si>
   <si>
     <t>Version</t>
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T17:15:36+00:00</t>
+    <t>2026-02-06T10:39:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T10:39:27+00:00</t>
+    <t>2026-02-06T10:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
+++ b/main/ig/ValueSet-ModifiedAdministrativeGender.xlsx
@@ -55,7 +55,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T10:41:32+00:00</t>
+    <t>2026-02-06T10:42:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
